--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>AQUA-1</t>
+  </si>
+  <si>
+    <t>AQUA-2</t>
+  </si>
+  <si>
+    <t>AQUA-0</t>
   </si>
 </sst>
 </file>
@@ -590,7 +599,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>300</v>
@@ -684,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -720,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>300</v>

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -75,16 +75,73 @@
     <t>at_pay</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>AQUA-1</t>
-  </si>
-  <si>
-    <t>AQUA-2</t>
-  </si>
-  <si>
-    <t>AQUA-0</t>
+    <t>S5001C1509A</t>
+  </si>
+  <si>
+    <t>S5001P1512A</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
+    <t>ขาย</t>
+  </si>
+  <si>
+    <t>BLAND</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>ปันผล</t>
+  </si>
+  <si>
+    <t>ICHI</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>KTB</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>TTW</t>
+  </si>
+  <si>
+    <t>DTAC</t>
+  </si>
+  <si>
+    <t>S5001P1509A</t>
+  </si>
+  <si>
+    <t>S5001P1508A</t>
+  </si>
+  <si>
+    <t>EFORL</t>
+  </si>
+  <si>
+    <t>BMCL</t>
+  </si>
+  <si>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>S5001P1510A</t>
   </si>
 </sst>
 </file>
@@ -166,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -183,6 +240,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,45 +709,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>790</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>27.04</v>
+      </c>
+      <c r="J2" s="3">
+        <v>42256</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>300</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="F2" s="1">
-        <v>366</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>366.62</v>
-      </c>
-      <c r="J2" s="3">
-        <v>41990</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>791</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -695,35 +757,37 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
+      <c r="D3" s="1">
+        <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="F3" s="1">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="G3" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>120.2</v>
+        <v>296.5</v>
       </c>
       <c r="J3" s="3">
-        <v>41990</v>
+        <v>42256</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>792</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -732,28 +796,1881 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="F4" s="1">
+        <v>248</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>248.42</v>
+      </c>
+      <c r="J4" s="3">
+        <v>42256</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>793</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>1.49</v>
+      </c>
+      <c r="F5">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>0.26</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>148.74</v>
+      </c>
+      <c r="J5" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>794</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>5.9</v>
+      </c>
+      <c r="F6">
+        <v>590</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>589</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>795</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0.94</v>
+      </c>
+      <c r="F7">
+        <v>94</v>
+      </c>
+      <c r="G7">
+        <v>0.16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>93.84</v>
+      </c>
+      <c r="J7" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>796</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>263</v>
+      </c>
+      <c r="F8">
+        <v>263</v>
+      </c>
+      <c r="G8">
+        <v>0.45</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>262.55</v>
+      </c>
+      <c r="J8" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>797</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>0.04</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>27.96</v>
+      </c>
+      <c r="J9" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>798</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
         <v>300</v>
       </c>
-      <c r="E4" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>366</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>366.62</v>
-      </c>
-      <c r="J4" s="3">
-        <v>41990</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>2</v>
+      <c r="E10">
+        <v>1.69</v>
+      </c>
+      <c r="F10">
+        <v>507</v>
+      </c>
+      <c r="G10">
+        <v>0.86</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>506.14</v>
+      </c>
+      <c r="J10" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>799</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>2.42</v>
+      </c>
+      <c r="F11">
+        <v>242</v>
+      </c>
+      <c r="G11">
+        <v>0.41</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>241.59</v>
+      </c>
+      <c r="J11" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>800</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>250</v>
+      </c>
+      <c r="G12">
+        <v>0.42</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>249.58</v>
+      </c>
+      <c r="J12" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>801</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>802</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>18.3</v>
+      </c>
+      <c r="F14">
+        <v>183</v>
+      </c>
+      <c r="G14">
+        <v>0.03</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>183.3</v>
+      </c>
+      <c r="J14" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>803</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>18.5</v>
+      </c>
+      <c r="F15">
+        <v>277.5</v>
+      </c>
+      <c r="G15">
+        <v>0.05</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>277.02999999999997</v>
+      </c>
+      <c r="J15" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>804</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>164</v>
+      </c>
+      <c r="F16">
+        <v>656</v>
+      </c>
+      <c r="G16">
+        <v>0.11</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>654.9</v>
+      </c>
+      <c r="J16" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>805</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>18.3</v>
+      </c>
+      <c r="F17">
+        <v>91.5</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>91.34</v>
+      </c>
+      <c r="J17" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>806</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="G18">
+        <v>0.02</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>91.84</v>
+      </c>
+      <c r="J18" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>807</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>7.95</v>
+      </c>
+      <c r="F19">
+        <v>795</v>
+      </c>
+      <c r="G19">
+        <v>0.15</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>793.66</v>
+      </c>
+      <c r="J19" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>808</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>11.2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1120</v>
+      </c>
+      <c r="G20">
+        <v>0.22</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1118.1099999999999</v>
+      </c>
+      <c r="J20" s="6">
+        <v>42256</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>809</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>350</v>
+      </c>
+      <c r="G21">
+        <v>0.59</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>350.59</v>
+      </c>
+      <c r="J21" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>810</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>5.8</v>
+      </c>
+      <c r="F22">
+        <v>580</v>
+      </c>
+      <c r="G22">
+        <v>0.98</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>580.98</v>
+      </c>
+      <c r="J22" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>811</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F23">
+        <v>224</v>
+      </c>
+      <c r="G23">
+        <v>0.37</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>224.37</v>
+      </c>
+      <c r="J23" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>812</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F24">
+        <v>224</v>
+      </c>
+      <c r="G24">
+        <v>0.37</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>224.37</v>
+      </c>
+      <c r="J24" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>813</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>1.67</v>
+      </c>
+      <c r="F25">
+        <v>167</v>
+      </c>
+      <c r="G25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>167.28</v>
+      </c>
+      <c r="J25" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>814</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1.55</v>
+      </c>
+      <c r="F26">
+        <v>155</v>
+      </c>
+      <c r="G26">
+        <v>0.26</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>154.74</v>
+      </c>
+      <c r="J26" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>815</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>1.54</v>
+      </c>
+      <c r="F27">
+        <v>154</v>
+      </c>
+      <c r="G27">
+        <v>0.26</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>153.74</v>
+      </c>
+      <c r="J27" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>816</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>1.49</v>
+      </c>
+      <c r="F28">
+        <v>149</v>
+      </c>
+      <c r="G28">
+        <v>0.03</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>149.25</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>817</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29">
+        <v>2.59</v>
+      </c>
+      <c r="F29">
+        <v>518.05999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.87</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>517.19000000000005</v>
+      </c>
+      <c r="J29" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>818</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>1.47</v>
+      </c>
+      <c r="F30">
+        <v>294</v>
+      </c>
+      <c r="G30">
+        <v>0.49</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>294.49</v>
+      </c>
+      <c r="J30" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>819</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <v>1.04</v>
+      </c>
+      <c r="F31">
+        <v>520</v>
+      </c>
+      <c r="G31">
+        <v>0.88</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>520.88</v>
+      </c>
+      <c r="J31" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>820</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32">
+        <v>1.04</v>
+      </c>
+      <c r="F32">
+        <v>520</v>
+      </c>
+      <c r="G32">
+        <v>0.88</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>520.88</v>
+      </c>
+      <c r="J32" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>821</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>253</v>
+      </c>
+      <c r="F33">
+        <v>253</v>
+      </c>
+      <c r="G33">
+        <v>0.43</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>253.43</v>
+      </c>
+      <c r="J33" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>822</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>1.64</v>
+      </c>
+      <c r="F34">
+        <v>164</v>
+      </c>
+      <c r="G34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>164.28</v>
+      </c>
+      <c r="J34" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>823</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>1.82</v>
+      </c>
+      <c r="F35">
+        <v>182</v>
+      </c>
+      <c r="G35">
+        <v>0.31</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>181.69</v>
+      </c>
+      <c r="J35" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>824</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="E36">
+        <v>1.05</v>
+      </c>
+      <c r="F36">
+        <v>525</v>
+      </c>
+      <c r="G36">
+        <v>0.89</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>524.11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>825</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F37">
+        <v>224</v>
+      </c>
+      <c r="G37">
+        <v>0.37</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>223.63</v>
+      </c>
+      <c r="J37" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>826</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>2.38</v>
+      </c>
+      <c r="F38">
+        <v>238</v>
+      </c>
+      <c r="G38">
+        <v>0.41</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>237.59</v>
+      </c>
+      <c r="J38" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>827</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>18.2</v>
+      </c>
+      <c r="F39">
+        <v>182</v>
+      </c>
+      <c r="G39">
+        <v>0.03</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>182.3</v>
+      </c>
+      <c r="J39" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>828</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>183</v>
+      </c>
+      <c r="F40">
+        <v>915</v>
+      </c>
+      <c r="G40">
+        <v>0.17</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>916.54</v>
+      </c>
+      <c r="J40" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>829</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1810</v>
+      </c>
+      <c r="G41">
+        <v>0.33</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1813.05</v>
+      </c>
+      <c r="J41" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>830</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1100</v>
+      </c>
+      <c r="G42">
+        <v>0.2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1101.8499999999999</v>
+      </c>
+      <c r="J42" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>831</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+      <c r="E43">
+        <v>1.47</v>
+      </c>
+      <c r="F43">
+        <v>735</v>
+      </c>
+      <c r="G43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>736.24</v>
+      </c>
+      <c r="J43" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>832</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>184.5</v>
+      </c>
+      <c r="F44">
+        <v>922.5</v>
+      </c>
+      <c r="G44">
+        <v>0.18</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>920.94</v>
+      </c>
+      <c r="J44" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>833</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F45">
+        <v>92</v>
+      </c>
+      <c r="G45">
+        <v>0.02</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>91.84</v>
+      </c>
+      <c r="J45" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>834</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <v>1.48</v>
+      </c>
+      <c r="F46">
+        <v>740</v>
+      </c>
+      <c r="G46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>738.75</v>
+      </c>
+      <c r="J46" s="6">
+        <v>42258</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>835</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>247</v>
+      </c>
+      <c r="F47">
+        <v>247</v>
+      </c>
+      <c r="G47">
+        <v>0.42</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>247.42</v>
+      </c>
+      <c r="J47" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>836</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>2.46</v>
+      </c>
+      <c r="F48">
+        <v>492</v>
+      </c>
+      <c r="G48">
+        <v>0.83</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>492.83</v>
+      </c>
+      <c r="J48" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>837</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="E49">
+        <v>1.05</v>
+      </c>
+      <c r="F49">
+        <v>525</v>
+      </c>
+      <c r="G49">
+        <v>0.89</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>524.11</v>
+      </c>
+      <c r="J49" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>838</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>5.85</v>
+      </c>
+      <c r="F50">
+        <v>585</v>
+      </c>
+      <c r="G50">
+        <v>0.98</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>584.02</v>
+      </c>
+      <c r="J50" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>839</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>2.48</v>
+      </c>
+      <c r="F51">
+        <v>248</v>
+      </c>
+      <c r="G51">
+        <v>0.42</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>247.58</v>
+      </c>
+      <c r="J51" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>840</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>7.85</v>
+      </c>
+      <c r="F52">
+        <v>785</v>
+      </c>
+      <c r="G52">
+        <v>0.15</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>786.33</v>
+      </c>
+      <c r="J52" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>841</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E53">
+        <v>1.03</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1030</v>
+      </c>
+      <c r="G53">
+        <v>1.74</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1031.74</v>
+      </c>
+      <c r="J53" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>842</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>5.7</v>
+      </c>
+      <c r="F54">
+        <v>570</v>
+      </c>
+      <c r="G54">
+        <v>0.96</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>570.96</v>
+      </c>
+      <c r="J54" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>843</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>2.48</v>
+      </c>
+      <c r="F55">
+        <v>248</v>
+      </c>
+      <c r="G55">
+        <v>0.42</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>247.58</v>
+      </c>
+      <c r="J55" s="6">
+        <v>42261</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>844</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>18.2</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1820</v>
+      </c>
+      <c r="G56">
+        <v>0.34</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1816.93</v>
+      </c>
+      <c r="J56" s="6">
+        <v>42262</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -75,43 +75,16 @@
     <t>at_pay</t>
   </si>
   <si>
-    <t>TMB</t>
-  </si>
-  <si>
     <t>ขาย</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>SIRI</t>
-  </si>
-  <si>
     <t>BLS</t>
   </si>
   <si>
     <t>KTB</t>
   </si>
   <si>
-    <t>LH</t>
-  </si>
-  <si>
-    <t>DTAC</t>
-  </si>
-  <si>
     <t>EFORL</t>
-  </si>
-  <si>
-    <t>BMCL</t>
-  </si>
-  <si>
-    <t>KBANK</t>
-  </si>
-  <si>
-    <t>INTUCH</t>
   </si>
   <si>
     <t>VGI</t>
@@ -635,7 +608,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,34 +660,34 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1">
-        <v>63.25</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F2" s="1">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>253.43</v>
+        <v>223.63</v>
       </c>
       <c r="J2" s="3">
-        <v>42263</v>
+        <v>42268</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
@@ -723,46 +696,46 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>75.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>757.5</v>
+        <v>17.8</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1780</v>
       </c>
       <c r="G3" s="1">
-        <v>1.28</v>
+        <v>0.34</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>758.78</v>
+      <c r="I3" s="9">
+        <v>1783.01</v>
       </c>
       <c r="J3" s="3">
-        <v>42263</v>
+        <v>42268</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -771,638 +744,264 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>1.67</v>
+        <v>3.72</v>
       </c>
       <c r="F4" s="1">
-        <v>167</v>
+        <v>372</v>
       </c>
       <c r="G4" s="1">
-        <v>0.28000000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>166.72</v>
+        <v>371.37</v>
       </c>
       <c r="J4" s="3">
-        <v>42263</v>
+        <v>42268</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>848</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="F5" s="1">
-        <v>166</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>165.72</v>
-      </c>
-      <c r="J5" s="3">
-        <v>42263</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>849</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.46</v>
-      </c>
-      <c r="F6" s="1">
-        <v>246</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>245.58</v>
-      </c>
-      <c r="J6" s="3">
-        <v>42263</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>850</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1790</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1793.04</v>
-      </c>
-      <c r="J7" s="3">
-        <v>42263</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>851</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="F8" s="1">
-        <v>795</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>793.66</v>
-      </c>
-      <c r="J8" s="3">
-        <v>42263</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>852</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="F9" s="1">
-        <v>158</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>158.27000000000001</v>
-      </c>
-      <c r="J9" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>853</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.78</v>
-      </c>
-      <c r="F10" s="1">
-        <v>178</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>178.3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>854</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>200</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="F11" s="1">
-        <v>182</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>182.31</v>
-      </c>
-      <c r="J11" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>855</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="F12" s="1">
-        <v>525</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>524.11</v>
-      </c>
-      <c r="J12" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>856</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="F13" s="1">
-        <v>525</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>524.11</v>
-      </c>
-      <c r="J13" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>857</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>255</v>
-      </c>
-      <c r="F14" s="1">
-        <v>255</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>254.57</v>
-      </c>
-      <c r="J14" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>858</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>179</v>
-      </c>
-      <c r="F15" s="1">
-        <v>895</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>896.51</v>
-      </c>
-      <c r="J15" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>859</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>180.5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>902.5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>900.98</v>
-      </c>
-      <c r="J16" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>860</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1820</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1816.91</v>
-      </c>
-      <c r="J17" s="3">
-        <v>42264</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>861</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="F18" s="1">
-        <v>165</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>165.28</v>
-      </c>
-      <c r="J18" s="3">
-        <v>42267</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>862</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1">
-        <v>100</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="F19" s="1">
-        <v>252</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>251.57</v>
-      </c>
-      <c r="J19" s="3">
-        <v>42267</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>863</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1">
-        <v>100</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3.66</v>
-      </c>
-      <c r="F20" s="1">
-        <v>366</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>366.61</v>
-      </c>
-      <c r="J20" s="3">
-        <v>42267</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>864</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8.25</v>
-      </c>
-      <c r="F21" s="1">
-        <v>825</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>823.6</v>
-      </c>
-      <c r="J21" s="3">
-        <v>42267</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -87,7 +87,43 @@
     <t>EFORL</t>
   </si>
   <si>
-    <t>VGI</t>
+    <t>BMCL</t>
+  </si>
+  <si>
+    <t>ADVANC</t>
+  </si>
+  <si>
+    <t>S5001C1511B</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>QH</t>
+  </si>
+  <si>
+    <t>ปันผล</t>
+  </si>
+  <si>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
+  <si>
+    <t>DTAC</t>
+  </si>
+  <si>
+    <t>INTUCH</t>
+  </si>
+  <si>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>SIRI</t>
   </si>
 </sst>
 </file>
@@ -475,7 +511,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,34 +696,34 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="F2" s="1">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>223.63</v>
+        <v>108.18</v>
       </c>
       <c r="J2" s="3">
-        <v>42268</v>
+        <v>42269</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
@@ -696,313 +732,620 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1780</v>
+        <v>1.84</v>
+      </c>
+      <c r="F3" s="1">
+        <v>368</v>
       </c>
       <c r="G3" s="1">
-        <v>0.34</v>
+        <v>0.62</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
-        <v>1783.01</v>
+      <c r="I3" s="1">
+        <v>367.38</v>
       </c>
       <c r="J3" s="3">
-        <v>42268</v>
+        <v>42269</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>231</v>
+      </c>
+      <c r="F4" s="9">
+        <v>231</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>231.39</v>
+      </c>
+      <c r="J4" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>871</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>260</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>260.44</v>
+      </c>
+      <c r="J5" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>872</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>109.82</v>
+      </c>
+      <c r="J6" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>873</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1710</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1707.11</v>
+      </c>
+      <c r="J7" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>874</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>262</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>261.56</v>
+      </c>
+      <c r="J8" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>875</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>127</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>126.79</v>
+      </c>
+      <c r="J9" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>876</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="J10" s="3">
+        <v>42272</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>877</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>42268</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>878</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>42268</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>879</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>62.11</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>880</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>73.75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>368.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>369.37</v>
+      </c>
+      <c r="J14" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>881</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="F15" s="1">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>124.21</v>
+      </c>
+      <c r="J15" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>882</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>460</v>
+      </c>
+      <c r="F16" s="1">
+        <v>460</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>460.78</v>
+      </c>
+      <c r="J16" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>883</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="F17" s="1">
+        <v>127</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>126.79</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>884</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="F18" s="1">
+        <v>516</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>515.13</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42270</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>885</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.72</v>
-      </c>
-      <c r="F4" s="1">
-        <v>372</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>371.37</v>
-      </c>
-      <c r="J4" s="3">
-        <v>42268</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="E19">
+        <v>17.2</v>
+      </c>
+      <c r="F19">
+        <v>344</v>
+      </c>
+      <c r="G19">
+        <v>0.06</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>344.58</v>
+      </c>
+      <c r="J19" s="6">
+        <v>42271</v>
+      </c>
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J22" s="6"/>
@@ -1053,22 +1396,22 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="7"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="7"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="7"/>
-      <c r="I41" s="7"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F42" s="7"/>
-      <c r="I42" s="7"/>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.25">
@@ -1093,6 +1436,9 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+      <c r="F50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
@@ -1102,21 +1448,9 @@
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="8"/>
       <c r="F53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="38">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -75,55 +75,70 @@
     <t>at_pay</t>
   </si>
   <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>KBANK</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>BJC</t>
+  </si>
+  <si>
+    <t>TMB</t>
+  </si>
+  <si>
     <t>ขาย</t>
   </si>
   <si>
-    <t>BLS</t>
+    <t>SCC</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>VGI</t>
+  </si>
+  <si>
+    <t>BLAND</t>
+  </si>
+  <si>
+    <t>DTAC</t>
+  </si>
+  <si>
+    <t>S5001C1511B</t>
+  </si>
+  <si>
+    <t>BMCL</t>
+  </si>
+  <si>
+    <t>EFORL</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>DTAC01P1512A</t>
+  </si>
+  <si>
+    <t>S5001P1511B</t>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>PF</t>
   </si>
   <si>
     <t>KTB</t>
   </si>
   <si>
-    <t>EFORL</t>
-  </si>
-  <si>
-    <t>BMCL</t>
-  </si>
-  <si>
-    <t>ADVANC</t>
-  </si>
-  <si>
-    <t>S5001C1511B</t>
-  </si>
-  <si>
-    <t>JAS</t>
-  </si>
-  <si>
-    <t>QH</t>
-  </si>
-  <si>
-    <t>ปันผล</t>
-  </si>
-  <si>
-    <t>KBANK</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>DTAC</t>
-  </si>
-  <si>
-    <t>INTUCH</t>
-  </si>
-  <si>
-    <t>SCC</t>
-  </si>
-  <si>
-    <t>SIRI</t>
+    <t>due_date</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -226,6 +241,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,9 +672,10 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,10 +712,13 @@
       <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -705,394 +727,431 @@
         <v>19</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1.08</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>108.18</v>
+        <v>31.05</v>
       </c>
       <c r="J2" s="3">
-        <v>42269</v>
+        <v>42272</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="1">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="G3" s="1">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>367.38</v>
+        <v>250.42</v>
       </c>
       <c r="J3" s="3">
-        <v>42269</v>
+        <v>42272</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>231</v>
-      </c>
-      <c r="F4" s="9">
-        <v>231</v>
+        <v>472</v>
+      </c>
+      <c r="F4" s="1">
+        <v>472</v>
       </c>
       <c r="G4" s="1">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
-        <v>231.39</v>
+      <c r="I4" s="1">
+        <v>471.21</v>
       </c>
       <c r="J4" s="3">
-        <v>42270</v>
+        <v>42272</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>1.3</v>
+        <v>5.51</v>
       </c>
       <c r="F5" s="1">
-        <v>260</v>
+        <v>551</v>
       </c>
       <c r="G5" s="1">
-        <v>0.44</v>
+        <v>0.11</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>260.44</v>
+        <v>551.94000000000005</v>
       </c>
       <c r="J5" s="3">
-        <v>42270</v>
+        <v>42272</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.62</v>
+      </c>
+      <c r="F6" s="1">
+        <v>362</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>362.6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>42272</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>110</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>109.82</v>
-      </c>
-      <c r="J6" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>151</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>150.74</v>
+      </c>
+      <c r="J7" s="3">
+        <v>42272</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>300</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1710</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1707.11</v>
-      </c>
-      <c r="J7" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>2.62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1">
-        <v>262</v>
+        <v>610</v>
       </c>
       <c r="G8" s="1">
-        <v>0.44</v>
+        <v>1.03</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>261.56</v>
+        <v>611.03</v>
       </c>
       <c r="J8" s="3">
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1.27</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>126.79</v>
+        <v>246.42</v>
       </c>
       <c r="J9" s="3">
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="3">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>1.19</v>
       </c>
       <c r="F10" s="1">
-        <v>12.5</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>11.25</v>
+        <v>119.2</v>
       </c>
       <c r="J10" s="3">
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>2.44</v>
       </c>
       <c r="F11" s="1">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>6</v>
+        <v>244.42</v>
       </c>
       <c r="J11" s="3">
-        <v>42268</v>
+        <v>42275</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="3">
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="F12" s="1">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="G12" s="1">
-        <v>6.8</v>
+        <v>0.3</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>61.2</v>
+        <v>179.3</v>
       </c>
       <c r="J12" s="3">
-        <v>42268</v>
+        <v>42276</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -1101,70 +1160,78 @@
         <v>29</v>
       </c>
       <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="F13" s="1">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>106.18</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>898</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="F14" s="1">
+        <v>106</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>106.18</v>
+      </c>
+      <c r="J14" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>62.11</v>
-      </c>
-      <c r="J13" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>880</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>73.75</v>
-      </c>
-      <c r="F14" s="9">
-        <v>368.75</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>369.37</v>
-      </c>
-      <c r="J14" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -1173,284 +1240,1149 @@
         <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1.24</v>
+        <v>456</v>
       </c>
       <c r="F15" s="1">
-        <v>124</v>
+        <v>456</v>
       </c>
       <c r="G15" s="1">
-        <v>0.21</v>
+        <v>0.77</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>124.21</v>
+        <v>456.77</v>
       </c>
       <c r="J15" s="3">
-        <v>42270</v>
+        <v>42276</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>166</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>166.28</v>
+      </c>
+      <c r="J16" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>901</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>108.82</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>902</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>462</v>
+      </c>
+      <c r="F18" s="1">
+        <v>462</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>461.22</v>
+      </c>
+      <c r="J18" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>903</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F19" s="1">
+        <v>169</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>168.71</v>
+      </c>
+      <c r="J19" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>904</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>175.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>877.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>878.99</v>
+      </c>
+      <c r="J20" s="3">
+        <v>42276</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="3">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>905</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="F21" s="1">
+        <v>294</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>294.49</v>
+      </c>
+      <c r="J21" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>460</v>
-      </c>
-      <c r="F16" s="1">
-        <v>460</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>460.78</v>
-      </c>
-      <c r="J16" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>883</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="M21" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>906</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F22" s="1">
+        <v>97</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>97.16</v>
+      </c>
+      <c r="J22" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>907</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>100.17</v>
+      </c>
+      <c r="J23" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>908</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>135.5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>135.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>135.72</v>
+      </c>
+      <c r="J24" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>909</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="F25" s="1">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>107.82</v>
+      </c>
+      <c r="J25" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>910</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2420</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2415.91</v>
+      </c>
+      <c r="J26" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>911</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F27" s="1">
+        <v>805</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>806.36</v>
+      </c>
+      <c r="J27" s="3">
+        <v>42277</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="F17" s="1">
-        <v>127</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>126.79</v>
-      </c>
-      <c r="J17" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>884</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="L27" s="4"/>
+      <c r="M27" s="3">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>912</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>31.75</v>
+      </c>
+      <c r="F28" s="1">
+        <v>158.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>159.02000000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>913</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1470</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1472.48</v>
+      </c>
+      <c r="J29" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>914</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1">
+        <v>700</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="F30" s="1">
+        <v>742</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>743.25</v>
+      </c>
+      <c r="J30" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>915</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1">
+        <v>700</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>630</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>631.05999999999995</v>
+      </c>
+      <c r="J31" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>916</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F32" s="1">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>105.18</v>
+      </c>
+      <c r="J32" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>917</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>500</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1202.02</v>
+      </c>
+      <c r="J33" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>918</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>108.82</v>
+      </c>
+      <c r="J34" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>919</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>99.83</v>
+      </c>
+      <c r="J35" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>920</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>137.5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>137.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>137.26</v>
+      </c>
+      <c r="J36" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>921</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="F37" s="9">
+        <v>17050</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>17078.79</v>
+      </c>
+      <c r="J37" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1">
-        <v>300</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="F18" s="1">
-        <v>516</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>515.13</v>
-      </c>
-      <c r="J18" s="3">
-        <v>42270</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>885</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>17.2</v>
-      </c>
-      <c r="F19">
-        <v>344</v>
-      </c>
-      <c r="G19">
+      <c r="L37" s="4"/>
+      <c r="M37" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>922</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1680</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1682.87</v>
+      </c>
+      <c r="J38" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>923</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="F39" s="9">
+        <v>5145</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>5136.34</v>
+      </c>
+      <c r="J39" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>924</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>857.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>856.04</v>
+      </c>
+      <c r="J40" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>925</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>171.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>343</v>
+      </c>
+      <c r="G41" s="1">
         <v>0.06</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>344.58</v>
-      </c>
-      <c r="J19" s="6">
-        <v>42271</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>342.42</v>
+      </c>
+      <c r="J41" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>926</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>98</v>
+      </c>
+      <c r="E42" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="F42" s="9">
+        <v>16709</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>16680.79</v>
+      </c>
+      <c r="J42" s="3">
+        <v>42278</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="3">
+        <v>42278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D50" s="8"/>
       <c r="F50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
       <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="6"/>
+      <c r="M53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momo\Desktop\_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>ซื้อ</t>
   </si>
@@ -87,31 +87,34 @@
     <t>ขาย</t>
   </si>
   <si>
-    <t>KTB</t>
-  </si>
-  <si>
     <t>due_date</t>
   </si>
   <si>
+    <t>DTAC</t>
+  </si>
+  <si>
+    <t>DTAC01P1512A</t>
+  </si>
+  <si>
+    <t>S5001C1512A</t>
+  </si>
+  <si>
+    <t>INTUCH</t>
+  </si>
+  <si>
+    <t>S5001P1511B</t>
+  </si>
+  <si>
+    <t>LHK</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
     <t>ADVANC</t>
   </si>
   <si>
-    <t>INTUCH</t>
-  </si>
-  <si>
-    <t>BLAND</t>
-  </si>
-  <si>
-    <t>DTAC</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>S5001C1511B</t>
-  </si>
-  <si>
-    <t>LH</t>
+    <t>TMB</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,92 +689,96 @@
         <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="E2" s="1">
-        <v>220</v>
+        <v>0.74</v>
       </c>
       <c r="F2" s="1">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="G2" s="1">
-        <v>0.37</v>
+        <v>0.62</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>220.37</v>
+        <v>370.62</v>
       </c>
       <c r="J2" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M2" s="3">
         <f>J2</f>
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1">
-        <v>71.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>717.5</v>
+        <v>3.02</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1208</v>
       </c>
       <c r="G3" s="1">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>718.71</v>
+      <c r="I3" s="9">
+        <v>1205.96</v>
       </c>
       <c r="J3" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M42" si="0">J3</f>
-        <v>42282</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -780,25 +787,25 @@
         <v>24</v>
       </c>
       <c r="D4" s="1">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="F4" s="9">
-        <v>735</v>
+        <v>73.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>367.5</v>
       </c>
       <c r="G4" s="1">
-        <v>1.24</v>
+        <v>0.62</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
-        <v>733.76</v>
+      <c r="I4" s="1">
+        <v>366.88</v>
       </c>
       <c r="J4" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>2</v>
@@ -806,12 +813,12 @@
       <c r="L4" s="4"/>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -820,427 +827,521 @@
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>55.25</v>
-      </c>
-      <c r="F5" s="9">
-        <v>552.5</v>
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>70</v>
       </c>
       <c r="G5" s="1">
-        <v>0.93</v>
+        <v>0.12</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>551.57000000000005</v>
+      <c r="I5" s="1">
+        <v>69.88</v>
       </c>
       <c r="J5" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M5" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>939</v>
+        <v>956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>0.91</v>
+        <v>2.98</v>
       </c>
       <c r="F6" s="1">
-        <v>455</v>
+        <v>298</v>
       </c>
       <c r="G6" s="1">
-        <v>0.77</v>
+        <v>0.06</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>454.23</v>
+        <v>298.5</v>
       </c>
       <c r="J6" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>940</v>
+        <v>957</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>250</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F7" s="1">
-        <v>250</v>
+        <v>805</v>
       </c>
       <c r="G7" s="1">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>249.58</v>
+        <v>803.64</v>
       </c>
       <c r="J7" s="3">
-        <v>42282</v>
+        <v>42284</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
       </c>
       <c r="E8" s="1">
-        <v>1.1299999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="F8" s="1">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="G8" s="1">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>225.62</v>
+        <v>132.22</v>
       </c>
       <c r="J8" s="3">
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="4" t="b">
+      <c r="L8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="F9" s="1">
-        <v>860</v>
+        <v>234</v>
       </c>
       <c r="G9" s="1">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>861.46</v>
+        <v>233.6</v>
       </c>
       <c r="J9" s="3">
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>172</v>
+        <v>57.25</v>
       </c>
       <c r="F10" s="1">
-        <v>688</v>
+        <v>515.25</v>
       </c>
       <c r="G10" s="1">
-        <v>0.12</v>
+        <v>0.87</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>689.16</v>
+        <v>514.38</v>
       </c>
       <c r="J10" s="3">
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1">
-        <v>800</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>801.35</v>
+        <v>268.55</v>
       </c>
       <c r="J11" s="3">
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E12" s="1">
-        <v>17.100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F12" s="1">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="G12" s="1">
-        <v>0.03</v>
+        <v>0.63</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>170.71</v>
+        <v>374.37</v>
       </c>
       <c r="J12" s="3">
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="M12" s="3">
         <f t="shared" si="0"/>
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>200</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="1">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>129.78</v>
+      </c>
+      <c r="J13" s="3">
+        <v>42285</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>964</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F14" s="1">
+        <v>508</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>507.14</v>
+      </c>
+      <c r="J14" s="3">
+        <v>42285</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>965</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="E13" s="1">
-        <v>172.5</v>
-      </c>
-      <c r="F13" s="9">
-        <v>17250</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>17220.87</v>
-      </c>
-      <c r="J13" s="3">
-        <v>42282</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>177</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1416</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1418.39</v>
+      </c>
+      <c r="J15" s="3">
+        <v>42285</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3">
-        <f t="shared" si="0"/>
-        <v>42282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="4"/>
       <c r="M15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="1">
+        <v>966</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>810</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>811.37</v>
+      </c>
+      <c r="J16" s="3">
+        <v>42285</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="A17" s="1">
+        <v>967</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>825</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>823.6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42285</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/public/images/uploads/import_file.xlsx
+++ b/public/images/uploads/import_file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -66,25 +66,31 @@
     <t>ขาย</t>
   </si>
   <si>
-    <t>KBANK</t>
+    <t>ซื้อ</t>
   </si>
   <si>
     <t>BLS</t>
   </si>
   <si>
-    <t>ซื้อ</t>
+    <t>QH</t>
   </si>
   <si>
-    <t>KTB</t>
-  </si>
-  <si>
-    <t>AQUA</t>
+    <t>TMB</t>
   </si>
   <si>
     <t>VGI</t>
   </si>
   <si>
-    <t>THANI</t>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>CPALL</t>
+  </si>
+  <si>
+    <t>LHBANK</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <dimension ref="A1:M1818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,34 +544,34 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1634</v>
+        <v>1668</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1">
-        <v>0.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F2" s="1">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="G2" s="1">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>375.63</v>
+        <v>440.74</v>
       </c>
       <c r="J2" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>13</v>
@@ -573,119 +579,119 @@
       <c r="L2" s="4"/>
       <c r="M2" s="3">
         <f>J2</f>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
-        <v>4.42</v>
-      </c>
-      <c r="F3" s="1">
-        <v>884</v>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1250</v>
       </c>
       <c r="G3" s="1">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>885.5</v>
+      <c r="I3" s="9">
+        <v>1252.1099999999999</v>
       </c>
       <c r="J3" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M66" si="0">J3</f>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <v>3.22</v>
+        <v>5.85</v>
       </c>
       <c r="F4" s="1">
-        <v>322</v>
+        <v>585</v>
       </c>
       <c r="G4" s="1">
-        <v>0.06</v>
+        <v>0.98</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>322.54000000000002</v>
+        <v>585.98</v>
       </c>
       <c r="J4" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1637</v>
+        <v>1671</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1780</v>
+        <v>4.12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>123.6</v>
       </c>
       <c r="G5" s="1">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>1783.01</v>
+      <c r="I5" s="1">
+        <v>123.81</v>
       </c>
       <c r="J5" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>16</v>
@@ -693,39 +699,39 @@
       <c r="L5" s="4"/>
       <c r="M5" s="3">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
-        <v>164.5</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9">
-        <v>16450</v>
+        <v>1600</v>
       </c>
       <c r="G6" s="1">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="9">
-        <v>16477.78</v>
+        <v>1602.71</v>
       </c>
       <c r="J6" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>16</v>
@@ -733,39 +739,39 @@
       <c r="L6" s="4"/>
       <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1639</v>
+        <v>1673</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="F7" s="1">
-        <v>888</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4100</v>
       </c>
       <c r="G7" s="1">
-        <v>0.17</v>
+        <v>0.77</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>886.5</v>
+      <c r="I7" s="9">
+        <v>4106.92</v>
       </c>
       <c r="J7" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>16</v>
@@ -773,39 +779,39 @@
       <c r="L7" s="4"/>
       <c r="M7" s="3">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1640</v>
+        <v>1674</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>165.5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3310</v>
+        <v>1.63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>163</v>
       </c>
       <c r="G8" s="1">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="9">
-        <v>3304.4</v>
+      <c r="I8" s="1">
+        <v>162.72999999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>42410</v>
+        <v>42417</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>16</v>
@@ -813,7 +819,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="3">
         <f t="shared" si="0"/>
-        <v>42410</v>
+        <v>42417</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
